--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A55B47-BEB9-4511-86E3-494A424C6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B6353-7382-4440-9EC3-4DBCB3FF5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="3600" windowWidth="21885" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21885" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -593,7 +593,7 @@
   <dimension ref="A1:BQ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,11 +733,11 @@
         <v>70</v>
       </c>
       <c r="D3" s="4">
-        <f>IF(QUOTIENT(A3-1,4)&lt;8,1.1*$A$1,1.1*0.5*$A$1)</f>
+        <f>1.1*$A$1</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E3" s="4">
-        <f>C3*D3</f>
+        <f t="shared" ref="E3:E36" si="0">C3*D3</f>
         <v>3003.0000000000005</v>
       </c>
       <c r="F3" s="11">
@@ -765,22 +765,22 @@
     </row>
     <row r="4" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A38" si="0">A3+1</f>
+        <f t="shared" ref="A4:A38" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C38" si="1">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="2">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D38" si="2">IF(QUOTIENT(A4-1,4)&lt;8,1.1*$A$1,1.1*0.5*$A$1)</f>
+        <f t="shared" ref="D4:D34" si="3">1.1*$A$1</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="4">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>2981.55</v>
       </c>
       <c r="F4" s="11">
@@ -790,7 +790,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="4">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -798,11 +798,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="4">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="5">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="5">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="6">J4+E4</f>
         <v>2981.55</v>
       </c>
       <c r="N4" s="8"/>
@@ -810,22 +810,22 @@
     </row>
     <row r="5" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="4">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>2960.1000000000004</v>
       </c>
       <c r="F5" s="11">
@@ -835,41 +835,41 @@
         <v>44807</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="6">I4</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I38" si="7">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2960.1000000000004</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E6" s="4">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>2938.6500000000005</v>
       </c>
       <c r="F6" s="11">
@@ -879,41 +879,41 @@
         <v>44808</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I6" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2938.6500000000005</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E7" s="4">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="F7" s="11">
@@ -923,41 +923,41 @@
         <v>44809</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I7" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E8" s="4">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>2895.7500000000005</v>
       </c>
       <c r="F8" s="11">
@@ -967,41 +967,41 @@
         <v>44810</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I8" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2895.7500000000005</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E9" s="4">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>2874.3</v>
       </c>
       <c r="F9" s="11">
@@ -1011,41 +1011,41 @@
         <v>44811</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2874.3</v>
       </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E10" s="4">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>2852.8500000000004</v>
       </c>
       <c r="F10" s="11">
@@ -1055,41 +1055,41 @@
         <v>44812</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I10" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2852.8500000000004</v>
       </c>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E11" s="4">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>2831.4000000000005</v>
       </c>
       <c r="F11" s="11">
@@ -1099,41 +1099,41 @@
         <v>44813</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I11" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2831.4000000000005</v>
       </c>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E12" s="4">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>2809.9500000000003</v>
       </c>
       <c r="F12" s="11">
@@ -1143,41 +1143,41 @@
         <v>44814</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="5"/>
         <v>2819.9500000000003</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E13" s="4">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>2788.5000000000005</v>
       </c>
       <c r="F13" s="11">
@@ -1187,41 +1187,41 @@
         <v>44815</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="5"/>
         <v>2808.5000000000005</v>
       </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E14" s="4">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>2767.05</v>
       </c>
       <c r="F14" s="11">
@@ -1231,41 +1231,41 @@
         <v>44816</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="5"/>
         <v>2797.05</v>
       </c>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E15" s="4">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>2745.6000000000004</v>
       </c>
       <c r="F15" s="11">
@@ -1275,41 +1275,41 @@
         <v>44817</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="5"/>
         <v>2785.6000000000004</v>
       </c>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E16" s="4">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>2724.1500000000005</v>
       </c>
       <c r="F16" s="11">
@@ -1319,41 +1319,41 @@
         <v>44818</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="5"/>
         <v>2774.1500000000005</v>
       </c>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E17" s="4">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>2702.7000000000003</v>
       </c>
       <c r="F17" s="11">
@@ -1363,41 +1363,41 @@
         <v>44819</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="5"/>
         <v>2762.7000000000003</v>
       </c>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E18" s="4">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>2681.2500000000005</v>
       </c>
       <c r="F18" s="11">
@@ -1407,41 +1407,41 @@
         <v>44820</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="5"/>
         <v>2751.2500000000005</v>
       </c>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E19" s="4">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>2659.8</v>
       </c>
       <c r="F19" s="11">
@@ -1451,41 +1451,41 @@
         <v>44821</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="5"/>
         <v>2739.8</v>
       </c>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E20" s="4">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>2638.3500000000004</v>
       </c>
       <c r="F20" s="11">
@@ -1499,37 +1499,37 @@
         <v>9</v>
       </c>
       <c r="I20" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="5"/>
         <v>2728.3500000000004</v>
       </c>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E21" s="4">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>2616.9000000000005</v>
       </c>
       <c r="F21" s="11">
@@ -1539,41 +1539,41 @@
         <v>44823</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="5"/>
         <v>2716.9000000000005</v>
       </c>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E22" s="4">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>2595.4500000000003</v>
       </c>
       <c r="F22" s="11">
@@ -1583,41 +1583,41 @@
         <v>44824</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="5"/>
         <v>2705.4500000000003</v>
       </c>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E23" s="4">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>2574.0000000000005</v>
       </c>
       <c r="F23" s="11">
@@ -1627,41 +1627,41 @@
         <v>44825</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="5"/>
         <v>2694.0000000000005</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E24" s="4">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>2552.5500000000002</v>
       </c>
       <c r="F24" s="11">
@@ -1671,41 +1671,41 @@
         <v>44826</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="4"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="5"/>
         <v>2682.55</v>
       </c>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E25" s="4">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>2531.1000000000004</v>
       </c>
       <c r="F25" s="11">
@@ -1715,41 +1715,41 @@
         <v>44827</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="5"/>
         <v>2671.1000000000004</v>
       </c>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E26" s="4">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>2509.6500000000005</v>
       </c>
       <c r="F26" s="11">
@@ -1759,41 +1759,41 @@
         <v>44828</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="5"/>
         <v>2659.6500000000005</v>
       </c>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E27" s="4">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>2488.2000000000003</v>
       </c>
       <c r="F27" s="11">
@@ -1803,41 +1803,41 @@
         <v>44829</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="5"/>
         <v>2648.2000000000003</v>
       </c>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E28" s="4">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>2466.7500000000005</v>
       </c>
       <c r="F28" s="11">
@@ -1847,41 +1847,41 @@
         <v>44830</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="5"/>
         <v>2636.7500000000005</v>
       </c>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E29" s="4">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>2445.3000000000002</v>
       </c>
       <c r="F29" s="11">
@@ -1891,41 +1891,41 @@
         <v>44831</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="5"/>
         <v>2625.3</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E30" s="4">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>2423.8500000000004</v>
       </c>
       <c r="F30" s="11">
@@ -1935,41 +1935,41 @@
         <v>44832</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="4"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="5"/>
         <v>2613.8500000000004</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E31" s="4">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>2402.4000000000005</v>
       </c>
       <c r="F31" s="11">
@@ -1979,41 +1979,41 @@
         <v>44833</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="5"/>
         <v>2602.4000000000005</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E32" s="4">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>2380.9500000000003</v>
       </c>
       <c r="F32" s="11">
@@ -2023,41 +2023,41 @@
         <v>44834</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="4"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="5"/>
         <v>2590.9500000000003</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E33" s="4">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>2359.5000000000005</v>
       </c>
       <c r="F33" s="11">
@@ -2067,41 +2067,41 @@
         <v>44835</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="5"/>
         <v>2579.5000000000005</v>
       </c>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E34" s="4">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>2338.0500000000002</v>
       </c>
       <c r="F34" s="11">
@@ -2111,41 +2111,41 @@
         <v>44836</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="4"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="5"/>
         <v>2568.0500000000002</v>
       </c>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="2"/>
+        <f>1.1*0.5*$A$1</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="4">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="11">
@@ -2155,41 +2155,41 @@
         <v>44837</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="5"/>
         <v>1398.3000000000002</v>
       </c>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D36:D38" si="8">1.1*0.5*$A$1</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="4">
-        <f>C36*D36</f>
+        <f t="shared" si="0"/>
         <v>1147.575</v>
       </c>
       <c r="F36" s="11">
@@ -2199,41 +2199,41 @@
         <v>44838</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="K36" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="5"/>
         <v>1397.575</v>
       </c>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ref="E37:E38" si="7">C37*D37</f>
+        <f t="shared" ref="E37:E38" si="9">C37*D37</f>
         <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="11">
@@ -2243,19 +2243,19 @@
         <v>44839</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" si="4"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="5"/>
         <v>1396.8500000000001</v>
       </c>
       <c r="L37" s="4"/>
@@ -2264,22 +2264,22 @@
     </row>
     <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="11">
@@ -2289,19 +2289,19 @@
         <v>44840</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="5"/>
         <v>1396.1250000000002</v>
       </c>
       <c r="L38" s="4"/>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862B6353-7382-4440-9EC3-4DBCB3FF5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A1D8F-D95F-4462-B950-BABA0D5CA387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21885" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Низамова</t>
   </si>
   <si>
-    <t>Озортюк</t>
-  </si>
-  <si>
     <t>Санутков</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Озотюрк</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -592,21 +593,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -729,15 +730,15 @@
       <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="15">
         <v>70</v>
       </c>
       <c r="D3" s="4">
-        <f>1.1*$A$1</f>
+        <f>39 * 1.1</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E36" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>3003.0000000000005</v>
       </c>
       <c r="F3" s="11">
@@ -747,7 +748,6 @@
         <v>44805</v>
       </c>
       <c r="H3" s="4">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -765,18 +765,16 @@
     </row>
     <row r="4" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <f t="shared" ref="A4:A38" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:C38" si="2">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D34" si="3">1.1*$A$1</f>
+        <f t="shared" ref="D4:D34" si="1">39 * 1.1</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="4">
@@ -790,19 +788,17 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H38" si="4">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="5">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="6">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>2981.55</v>
       </c>
       <c r="N4" s="8"/>
@@ -810,18 +806,16 @@
     </row>
     <row r="5" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="4">
@@ -835,37 +829,33 @@
         <v>44807</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2960.1000000000004</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="2"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E6" s="4">
@@ -879,37 +869,33 @@
         <v>44808</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2938.6500000000005</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E7" s="4">
@@ -923,37 +909,33 @@
         <v>44809</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E8" s="4">
@@ -967,37 +949,33 @@
         <v>44810</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2895.7500000000005</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E9" s="4">
@@ -1011,37 +989,33 @@
         <v>44811</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2874.3</v>
       </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E10" s="4">
@@ -1055,37 +1029,33 @@
         <v>44812</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2852.8500000000004</v>
       </c>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E11" s="4">
@@ -1099,37 +1069,33 @@
         <v>44813</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2831.4000000000005</v>
       </c>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E12" s="4">
@@ -1143,37 +1109,33 @@
         <v>44814</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2819.9500000000003</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E13" s="4">
@@ -1187,37 +1149,33 @@
         <v>44815</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2808.5000000000005</v>
       </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="2"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E14" s="4">
@@ -1231,37 +1189,33 @@
         <v>44816</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2797.05</v>
       </c>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E15" s="4">
@@ -1275,37 +1229,33 @@
         <v>44817</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2785.6000000000004</v>
       </c>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="2"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E16" s="4">
@@ -1319,37 +1269,33 @@
         <v>44818</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2774.1500000000005</v>
       </c>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E17" s="4">
@@ -1363,37 +1309,33 @@
         <v>44819</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2762.7000000000003</v>
       </c>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E18" s="4">
@@ -1407,37 +1349,33 @@
         <v>44820</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2751.2500000000005</v>
       </c>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E19" s="4">
@@ -1451,37 +1389,33 @@
         <v>44821</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2739.8</v>
       </c>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>61.5</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E20" s="4">
@@ -1495,37 +1429,33 @@
         <v>44822</v>
       </c>
       <c r="H20" s="4">
-        <f>IF(G20&lt;=F20,0,G20-F20)</f>
         <v>9</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2728.3500000000004</v>
       </c>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4">
+        <v>61</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E21" s="4">
@@ -1539,37 +1469,33 @@
         <v>44823</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2716.9000000000005</v>
       </c>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>60.5</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E22" s="4">
@@ -1583,37 +1509,33 @@
         <v>44824</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2705.4500000000003</v>
       </c>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E23" s="4">
@@ -1627,37 +1549,33 @@
         <v>44825</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2694.0000000000005</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>59.5</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E24" s="4">
@@ -1671,37 +1589,33 @@
         <v>44826</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2682.55</v>
       </c>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E25" s="4">
@@ -1715,37 +1629,33 @@
         <v>44827</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2671.1000000000004</v>
       </c>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="2"/>
-        <v>58.5</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E26" s="4">
@@ -1759,37 +1669,33 @@
         <v>44828</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2659.6500000000005</v>
       </c>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E27" s="4">
@@ -1803,37 +1709,33 @@
         <v>44829</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2648.2000000000003</v>
       </c>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4">
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="2"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E28" s="4">
@@ -1847,37 +1749,33 @@
         <v>44830</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2636.7500000000005</v>
       </c>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E29" s="4">
@@ -1891,37 +1789,33 @@
         <v>44831</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2625.3</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="2"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E30" s="4">
@@ -1935,37 +1829,33 @@
         <v>44832</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2613.8500000000004</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E31" s="4">
@@ -1979,37 +1869,33 @@
         <v>44833</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2602.4000000000005</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="2"/>
-        <v>55.5</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E32" s="4">
@@ -2023,37 +1909,33 @@
         <v>44834</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2590.9500000000003</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E33" s="4">
@@ -2067,37 +1949,33 @@
         <v>44835</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2579.5000000000005</v>
       </c>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="3"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E34" s="4">
@@ -2111,37 +1989,33 @@
         <v>44836</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2568.0500000000002</v>
       </c>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>1.1*0.5*$A$1</f>
+        <f>39*1.1/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="4">
@@ -2155,37 +2029,33 @@
         <v>44837</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1398.3000000000002</v>
       </c>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="8">1.1*0.5*$A$1</f>
+        <f t="shared" ref="D36:D38" si="4">39*1.1/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="4">
@@ -2199,41 +2069,37 @@
         <v>44838</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1397.575</v>
       </c>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ref="E37:E38" si="9">C37*D37</f>
+        <f t="shared" si="0"/>
         <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="11">
@@ -2243,19 +2109,17 @@
         <v>44839</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1396.8500000000001</v>
       </c>
       <c r="L37" s="4"/>
@@ -2264,22 +2128,20 @@
     </row>
     <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="11">
@@ -2289,19 +2151,17 @@
         <v>44840</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1396.1250000000002</v>
       </c>
       <c r="L38" s="4"/>
@@ -2309,7 +2169,7 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2325,7 +2185,7 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
         <v>10</v>
       </c>
@@ -2346,9 +2206,9 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2367,9 +2227,9 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2388,9 +2248,9 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A1D8F-D95F-4462-B950-BABA0D5CA387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88853EAB-B722-4122-B47D-80AD9EC926C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -276,7 +276,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:BQ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="4">
-        <f>39 * 1.1</f>
+        <f>IF(QUOTIENT(A3-1, 4) &lt; 8, $A$1*1.1, $A$1*0.5*1.1)</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E3" s="4">
@@ -748,6 +748,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="4">
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -765,16 +766,18 @@
     </row>
     <row r="4" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="15">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D34" si="1">39 * 1.1</f>
+        <f t="shared" ref="D4:D38" si="1">IF(QUOTIENT(A4-1, 4) &lt; 8, $A$1*1.1, $A$1*0.5*1.1)</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="4">
@@ -788,17 +791,18 @@
         <v>44806</v>
       </c>
       <c r="H4" s="4">
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
         <v>10</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>2981.55</v>
       </c>
       <c r="N4" s="8"/>
@@ -806,12 +810,14 @@
     </row>
     <row r="5" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="4">
@@ -829,29 +835,32 @@
         <v>44807</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2960.1000000000004</v>
       </c>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="15">
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="4">
@@ -869,29 +878,32 @@
         <v>44808</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2938.6500000000005</v>
       </c>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="15">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="4">
@@ -909,29 +921,32 @@
         <v>44809</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>10</v>
-      </c>
-      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="15">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="4">
@@ -949,29 +964,32 @@
         <v>44810</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2895.7500000000005</v>
       </c>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="15">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="4">
@@ -989,29 +1007,32 @@
         <v>44811</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>10</v>
-      </c>
-      <c r="J9" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2874.3</v>
       </c>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="15">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="4">
@@ -1029,29 +1050,32 @@
         <v>44812</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2852.8500000000004</v>
       </c>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="15">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="4">
@@ -1069,29 +1093,32 @@
         <v>44813</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="I11" s="4">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2831.4000000000005</v>
       </c>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="15">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="4">
@@ -1109,29 +1136,32 @@
         <v>44814</v>
       </c>
       <c r="H12" s="4">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>10</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2819.9500000000003</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="15">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="4">
@@ -1149,29 +1179,32 @@
         <v>44815</v>
       </c>
       <c r="H13" s="4">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="4">
         <v>10</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2808.5000000000005</v>
       </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="15">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="4">
@@ -1189,29 +1222,32 @@
         <v>44816</v>
       </c>
       <c r="H14" s="4">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="4">
         <v>10</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2797.05</v>
       </c>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="15">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="4">
@@ -1229,29 +1265,32 @@
         <v>44817</v>
       </c>
       <c r="H15" s="4">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="4">
         <v>10</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2785.6000000000004</v>
       </c>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="15">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="4">
@@ -1269,29 +1308,32 @@
         <v>44818</v>
       </c>
       <c r="H16" s="4">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="4">
         <v>10</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2774.1500000000005</v>
       </c>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="15">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="4">
@@ -1309,29 +1351,32 @@
         <v>44819</v>
       </c>
       <c r="H17" s="4">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="4">
         <v>10</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2762.7000000000003</v>
       </c>
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="15">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="4">
@@ -1349,29 +1394,32 @@
         <v>44820</v>
       </c>
       <c r="H18" s="4">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="4">
         <v>10</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2751.2500000000005</v>
       </c>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="15">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="4">
@@ -1389,29 +1437,32 @@
         <v>44821</v>
       </c>
       <c r="H19" s="4">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="4">
         <v>10</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2739.8</v>
       </c>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="15">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="4">
@@ -1429,29 +1480,32 @@
         <v>44822</v>
       </c>
       <c r="H20" s="4">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="4">
         <v>10</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2728.3500000000004</v>
       </c>
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="15">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="4">
@@ -1469,29 +1523,32 @@
         <v>44823</v>
       </c>
       <c r="H21" s="4">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="4">
         <v>10</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2716.9000000000005</v>
       </c>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="15">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="4">
@@ -1509,29 +1566,32 @@
         <v>44824</v>
       </c>
       <c r="H22" s="4">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="4">
         <v>10</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2705.4500000000003</v>
       </c>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="15">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="4">
@@ -1549,29 +1609,32 @@
         <v>44825</v>
       </c>
       <c r="H23" s="4">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="4">
         <v>10</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2694.0000000000005</v>
       </c>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="15">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="4">
@@ -1589,29 +1652,32 @@
         <v>44826</v>
       </c>
       <c r="H24" s="4">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="4">
         <v>10</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2682.55</v>
       </c>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="15">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="4">
@@ -1629,29 +1695,32 @@
         <v>44827</v>
       </c>
       <c r="H25" s="4">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="4">
         <v>10</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2671.1000000000004</v>
       </c>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="15">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="4">
@@ -1669,29 +1738,32 @@
         <v>44828</v>
       </c>
       <c r="H26" s="4">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="4">
         <v>10</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2659.6500000000005</v>
       </c>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="15">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="4">
@@ -1709,29 +1781,32 @@
         <v>44829</v>
       </c>
       <c r="H27" s="4">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="4">
         <v>10</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2648.2000000000003</v>
       </c>
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="15">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="4">
@@ -1749,29 +1824,32 @@
         <v>44830</v>
       </c>
       <c r="H28" s="4">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="4">
         <v>10</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2636.7500000000005</v>
       </c>
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="15">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="4">
@@ -1789,29 +1867,32 @@
         <v>44831</v>
       </c>
       <c r="H29" s="4">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="4">
         <v>10</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2625.3</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="15">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="4">
@@ -1829,29 +1910,32 @@
         <v>44832</v>
       </c>
       <c r="H30" s="4">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="4">
         <v>10</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2613.8500000000004</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="15">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="4">
@@ -1869,29 +1953,32 @@
         <v>44833</v>
       </c>
       <c r="H31" s="4">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="4">
         <v>10</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2602.4000000000005</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="15">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="4">
@@ -1909,29 +1996,32 @@
         <v>44834</v>
       </c>
       <c r="H32" s="4">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="4">
         <v>10</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2590.9500000000003</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="15">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="4">
@@ -1949,29 +2039,32 @@
         <v>44835</v>
       </c>
       <c r="H33" s="4">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="4">
         <v>10</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2579.5000000000005</v>
       </c>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="15">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="4">
@@ -1989,37 +2082,40 @@
         <v>44836</v>
       </c>
       <c r="H34" s="4">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="4">
         <v>10</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2568.0500000000002</v>
       </c>
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="15">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>39*1.1/2</f>
+        <f t="shared" si="1"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="0"/>
+        <f>C35*D35</f>
         <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="11">
@@ -2029,33 +2125,36 @@
         <v>44837</v>
       </c>
       <c r="H35" s="4">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="4">
         <v>10</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1398.3000000000002</v>
       </c>
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="15">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="4">39*1.1/2</f>
+        <f t="shared" si="1"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="4">
@@ -2069,33 +2168,36 @@
         <v>44838</v>
       </c>
       <c r="H36" s="4">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="4">
         <v>10</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1397.575</v>
       </c>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="15">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="4">
@@ -2109,17 +2211,18 @@
         <v>44839</v>
       </c>
       <c r="H37" s="4">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="4">
         <v>10</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1396.8500000000001</v>
       </c>
       <c r="L37" s="4"/>
@@ -2128,16 +2231,18 @@
     </row>
     <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="15">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="4">
@@ -2151,17 +2256,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="4">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="4">
         <v>10</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1396.1250000000002</v>
       </c>
       <c r="L38" s="4"/>
@@ -3787,7 +3893,7 @@
       <c r="M150" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G36">
+  <sortState ref="G3:G36">
     <sortCondition ref="G3:G36"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88853EAB-B722-4122-B47D-80AD9EC926C4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE29748-67E5-436B-98A1-56E8AAEB6972}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Озотюрк</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:BQ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,13 +713,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="N2" s="8"/>
     </row>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="15">
         <v>70</v>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15">
         <f>C3-0.5</f>
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="6"/>
@@ -900,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="6"/>
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="15">
         <f t="shared" si="6"/>
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" si="6"/>
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="15">
         <f t="shared" si="6"/>
@@ -1072,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" si="6"/>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="15">
         <f t="shared" si="6"/>
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="15">
         <f t="shared" si="6"/>
@@ -1201,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15">
         <f t="shared" si="6"/>
@@ -1244,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="6"/>
@@ -1287,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15">
         <f t="shared" si="6"/>
@@ -1330,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15">
         <f t="shared" si="6"/>
@@ -1373,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15">
         <f t="shared" si="6"/>
@@ -1416,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="15">
         <f t="shared" si="6"/>
@@ -1459,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" si="6"/>
@@ -1502,7 +1502,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15">
         <f t="shared" si="6"/>
@@ -1545,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15">
         <f t="shared" si="6"/>
@@ -1588,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15">
         <f t="shared" si="6"/>
@@ -1631,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15">
         <f t="shared" si="6"/>
@@ -1674,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="15">
         <f t="shared" si="6"/>
@@ -1717,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="15">
         <f t="shared" si="6"/>
@@ -1760,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15">
         <f t="shared" si="6"/>
@@ -1803,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="15">
         <f t="shared" si="6"/>
@@ -1846,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15">
         <f t="shared" si="6"/>
@@ -1889,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="15">
         <f t="shared" si="6"/>
@@ -1932,7 +1932,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15">
         <f t="shared" si="6"/>
@@ -1975,7 +1975,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="15">
         <f t="shared" si="6"/>
@@ -2018,7 +2018,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15">
         <f t="shared" si="6"/>
@@ -2061,7 +2061,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="15">
         <f t="shared" si="6"/>
@@ -2104,7 +2104,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15">
         <f t="shared" si="6"/>
@@ -2147,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="15">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="15">
         <f t="shared" si="6"/>
@@ -2235,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="15">
         <f t="shared" si="6"/>
@@ -2293,7 +2293,7 @@
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="4">
         <f>INT(SUM(K3:K38))</f>
@@ -2314,7 +2314,7 @@
     <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2335,7 +2335,7 @@
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2356,7 +2356,7 @@
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE29748-67E5-436B-98A1-56E8AAEB6972}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC0D024-500D-48CF-BC81-622AEA73C7A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:BQ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>8</v>
@@ -1459,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" si="6"/>
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="15">
         <f t="shared" si="6"/>
@@ -2235,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="15">
         <f t="shared" si="6"/>
@@ -2356,7 +2356,7 @@
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC0D024-500D-48CF-BC81-622AEA73C7A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330DCAA-EFAC-4E46-B216-0208A00CFF33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,7 +2296,7 @@
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4">
         <f>INT(SUM(K3:K38))</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330DCAA-EFAC-4E46-B216-0208A00CFF33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1F593-8AE4-4C09-AEFE-A38531A99901}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,34 +695,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="N2" s="8"/>
     </row>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15">
         <v>70</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15">
         <f>C3-0.5</f>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="15">
         <f t="shared" si="6"/>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="15">
         <f t="shared" si="6"/>
@@ -946,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15">
         <f t="shared" si="6"/>
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="15">
         <f t="shared" si="6"/>
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="15">
         <f t="shared" si="6"/>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="15">
         <f t="shared" si="6"/>
@@ -1118,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="15">
         <f t="shared" si="6"/>
@@ -1161,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="15">
         <f t="shared" si="6"/>
@@ -1204,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15">
         <f t="shared" si="6"/>
@@ -1247,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="6"/>
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="15">
         <f t="shared" si="6"/>
@@ -1333,7 +1333,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15">
         <f t="shared" si="6"/>
@@ -1376,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="15">
         <f t="shared" si="6"/>
@@ -1419,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15">
         <f t="shared" si="6"/>
@@ -1462,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" si="6"/>
@@ -1505,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="15">
         <f t="shared" si="6"/>
@@ -1548,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15">
         <f t="shared" si="6"/>
@@ -1591,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="15">
         <f t="shared" si="6"/>
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15">
         <f t="shared" si="6"/>
@@ -1677,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="15">
         <f t="shared" si="6"/>
@@ -1720,7 +1720,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15">
         <f t="shared" si="6"/>
@@ -1763,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="15">
         <f t="shared" si="6"/>
@@ -1806,7 +1806,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15">
         <f t="shared" si="6"/>
@@ -1849,7 +1849,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="15">
         <f t="shared" si="6"/>
@@ -1892,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15">
         <f t="shared" si="6"/>
@@ -1935,7 +1935,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="15">
         <f t="shared" si="6"/>
@@ -1978,7 +1978,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="15">
         <f t="shared" si="6"/>
@@ -2021,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="15">
         <f t="shared" si="6"/>
@@ -2064,7 +2064,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="15">
         <f t="shared" si="6"/>
@@ -2107,7 +2107,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15">
         <f t="shared" si="6"/>
@@ -2150,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="15">
         <f t="shared" si="6"/>
@@ -2193,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="15">
         <f t="shared" si="6"/>
@@ -2238,7 +2238,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="15">
         <f t="shared" si="6"/>
@@ -2296,7 +2296,7 @@
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4">
         <f>INT(SUM(K3:K38))</f>
@@ -2317,7 +2317,7 @@
     <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2338,7 +2338,7 @@
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2359,7 +2359,7 @@
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1F593-8AE4-4C09-AEFE-A38531A99901}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC8781-C7E2-493E-966E-F833E2CE21C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,14 +596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -788,9 +788,11 @@
         <v>2981.55</v>
       </c>
       <c r="F4" s="11">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="11">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="4">
@@ -798,6 +800,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="4">
@@ -832,9 +835,11 @@
         <v>2960.1000000000004</v>
       </c>
       <c r="F5" s="11">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="11">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="4">
@@ -842,6 +847,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="4">
@@ -875,9 +881,11 @@
         <v>2938.6500000000005</v>
       </c>
       <c r="F6" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="11">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="4">
@@ -885,6 +893,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="4">
@@ -918,9 +927,11 @@
         <v>2917.2000000000003</v>
       </c>
       <c r="F7" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="11">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="4">
@@ -928,6 +939,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="4">
@@ -961,9 +973,11 @@
         <v>2895.7500000000005</v>
       </c>
       <c r="F8" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="11">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="4">
@@ -971,6 +985,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="4">
@@ -1004,9 +1019,11 @@
         <v>2874.3</v>
       </c>
       <c r="F9" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="11">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="4">
@@ -1014,6 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="4">
@@ -1047,9 +1065,11 @@
         <v>2852.8500000000004</v>
       </c>
       <c r="F10" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="11">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="4">
@@ -1057,6 +1077,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="4">
@@ -1090,9 +1111,11 @@
         <v>2831.4000000000005</v>
       </c>
       <c r="F11" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="11">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="4">
@@ -1100,6 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="4">
@@ -1133,9 +1157,11 @@
         <v>2809.9500000000003</v>
       </c>
       <c r="F12" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="11">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="4">
@@ -1143,6 +1169,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="4">
@@ -1176,9 +1203,11 @@
         <v>2788.5000000000005</v>
       </c>
       <c r="F13" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="11">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="4">
@@ -1186,6 +1215,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="4">
@@ -1219,9 +1249,11 @@
         <v>2767.05</v>
       </c>
       <c r="F14" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="11">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="4">
@@ -1229,6 +1261,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="4">
@@ -1262,9 +1295,11 @@
         <v>2745.6000000000004</v>
       </c>
       <c r="F15" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="11">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="4">
@@ -1272,6 +1307,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="4">
@@ -1305,9 +1341,11 @@
         <v>2724.1500000000005</v>
       </c>
       <c r="F16" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="11">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="4">
@@ -1315,6 +1353,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="4">
@@ -1348,9 +1387,11 @@
         <v>2702.7000000000003</v>
       </c>
       <c r="F17" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="11">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="4">
@@ -1358,6 +1399,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="4">
@@ -1391,9 +1433,11 @@
         <v>2681.2500000000005</v>
       </c>
       <c r="F18" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="11">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="4">
@@ -1401,6 +1445,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="4">
@@ -1434,9 +1479,11 @@
         <v>2659.8</v>
       </c>
       <c r="F19" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="11">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="4">
@@ -1444,6 +1491,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="4">
@@ -1477,9 +1525,11 @@
         <v>2638.3500000000004</v>
       </c>
       <c r="F20" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="11">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="4">
@@ -1487,6 +1537,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="4">
@@ -1520,9 +1571,11 @@
         <v>2616.9000000000005</v>
       </c>
       <c r="F21" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="11">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="4">
@@ -1530,6 +1583,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="4">
@@ -1563,9 +1617,11 @@
         <v>2595.4500000000003</v>
       </c>
       <c r="F22" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="11">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="4">
@@ -1573,6 +1629,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="4">
@@ -1606,9 +1663,11 @@
         <v>2574.0000000000005</v>
       </c>
       <c r="F23" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="11">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="4">
@@ -1616,6 +1675,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="4">
@@ -1649,9 +1709,11 @@
         <v>2552.5500000000002</v>
       </c>
       <c r="F24" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="11">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="4">
@@ -1659,6 +1721,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="4">
@@ -1692,9 +1755,11 @@
         <v>2531.1000000000004</v>
       </c>
       <c r="F25" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="11">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="4">
@@ -1702,6 +1767,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="4">
@@ -1735,9 +1801,11 @@
         <v>2509.6500000000005</v>
       </c>
       <c r="F26" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="11">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="4">
@@ -1745,6 +1813,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="4">
@@ -1778,9 +1847,11 @@
         <v>2488.2000000000003</v>
       </c>
       <c r="F27" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="11">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="4">
@@ -1788,6 +1859,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="4">
@@ -1821,9 +1893,11 @@
         <v>2466.7500000000005</v>
       </c>
       <c r="F28" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="11">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="4">
@@ -1831,6 +1905,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="4">
@@ -1864,9 +1939,11 @@
         <v>2445.3000000000002</v>
       </c>
       <c r="F29" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="11">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="4">
@@ -1874,6 +1951,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="4">
@@ -1907,9 +1985,11 @@
         <v>2423.8500000000004</v>
       </c>
       <c r="F30" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="11">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="4">
@@ -1917,6 +1997,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="4">
@@ -1950,9 +2031,11 @@
         <v>2402.4000000000005</v>
       </c>
       <c r="F31" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="11">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="4">
@@ -1960,6 +2043,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="4">
@@ -1993,9 +2077,11 @@
         <v>2380.9500000000003</v>
       </c>
       <c r="F32" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="11">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="4">
@@ -2003,6 +2089,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="4">
@@ -2036,9 +2123,11 @@
         <v>2359.5000000000005</v>
       </c>
       <c r="F33" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="11">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="4">
@@ -2046,6 +2135,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="4">
@@ -2079,9 +2169,11 @@
         <v>2338.0500000000002</v>
       </c>
       <c r="F34" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="11">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="4">
@@ -2089,6 +2181,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="4">
@@ -2122,9 +2215,11 @@
         <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="11">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="4">
@@ -2132,6 +2227,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="4">
@@ -2165,9 +2261,11 @@
         <v>1147.575</v>
       </c>
       <c r="F36" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="11">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="4">
@@ -2175,6 +2273,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="4">
@@ -2208,9 +2307,11 @@
         <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="11">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="4">
@@ -2218,6 +2319,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="4">
@@ -2253,9 +2355,11 @@
         <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="11">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="11">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="4">
@@ -2263,6 +2367,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="4">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="4">

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC8781-C7E2-493E-966E-F833E2CE21C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF24D5-A365-4B16-A254-E1375B1C9535}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +610,7 @@
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -737,7 +737,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="4">
-        <f>IF(QUOTIENT(A3-1, 4) &lt; 8, $A$1*1.1, $A$1*0.5*1.1)</f>
+        <f>$A$1*1.1</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E3" s="4">
@@ -780,7 +780,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D38" si="1">IF(QUOTIENT(A4-1, 4) &lt; 8, $A$1*1.1, $A$1*0.5*1.1)</f>
+        <f t="shared" ref="D4:D34" si="1">$A$1*1.1</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="4">
@@ -2207,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="1"/>
+        <f>$A$1*0.5*1.1</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="4">
@@ -2253,7 +2253,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D36:D38" si="10">$A$1*0.5*1.1</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="4">
@@ -2299,7 +2299,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="4">
@@ -2347,7 +2347,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="4">

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF24D5-A365-4B16-A254-E1375B1C9535}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695F80E-0BC6-4D66-97DF-825B71CE5401}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>$A$1*0.5*1.1</f>
+        <f>$A$1*1.1/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="4">
@@ -2253,7 +2253,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="10">$A$1*0.5*1.1</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="4">

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695F80E-0BC6-4D66-97DF-825B71CE5401}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CF04E-F60A-4A94-9ECE-7013F487542C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="4">
-        <f>$A$1*1.1/2</f>
+        <f>$A$1*1.1*1/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="4">
@@ -2253,7 +2253,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1*1/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="4">

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -144,18 +144,6 @@
     <t>Тариф, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб</t>
   </si>
   <si>
@@ -169,6 +157,21 @@
   </si>
   <si>
     <t>Максимальная оплата, руб</t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Итого, руб</t>
+  </si>
+  <si>
+    <t>Штраф, руб</t>
   </si>
 </sst>
 </file>
@@ -495,25 +498,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="10" width="15" customWidth="1"/>
+    <col min="3" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,22 +533,25 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -578,11 +584,15 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>E3+(I3*H3)</f>
+        <f>I3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>E3+J3</f>
         <v>3003.0000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -616,11 +626,15 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">E4+(I4*H4)</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>2981.55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -628,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -650,15 +664,19 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="5">$I$3</f>
+        <f t="shared" ref="I5:I38" si="6">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
         <v>2960.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -666,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -688,15 +706,19 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
         <v>2938.6500000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -704,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -726,15 +748,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
         <v>2917.2000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -742,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -764,15 +790,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
         <v>2895.7500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -780,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -802,15 +832,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
         <v>2874.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -818,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -840,15 +874,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
         <v>2852.8500000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,15 +894,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <v>21.45</v>
+        <f>$A$1*1.1/2</f>
+        <v>21.450000000000003</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>1415.7</v>
+        <v>1415.7000000000003</v>
       </c>
       <c r="F11" s="2">
         <v>44813</v>
@@ -877,15 +916,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>1415.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>1415.7000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -893,15 +936,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <v>21.45</v>
+        <f t="shared" ref="D12:D38" si="7">$A$1*1.1/2</f>
+        <v>21.450000000000003</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>1404.9749999999999</v>
+        <v>1404.9750000000001</v>
       </c>
       <c r="F12" s="2">
         <v>44813</v>
@@ -914,15 +958,19 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>1414.9749999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>1414.9750000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -930,15 +978,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>1394.25</v>
+        <v>1394.2500000000002</v>
       </c>
       <c r="F13" s="2">
         <v>44813</v>
@@ -947,19 +996,23 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="6">IF(G13&lt;F13, 0, G13-F13)</f>
+        <f t="shared" ref="H13:H38" si="8">IF(G13&lt;F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>1414.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1414.2500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -967,15 +1020,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>1383.5249999999999</v>
+        <v>1383.5250000000001</v>
       </c>
       <c r="F14" s="2">
         <v>44813</v>
@@ -984,19 +1038,23 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>1413.5249999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>1413.5250000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1004,15 +1062,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>1372.8</v>
+        <v>1372.8000000000002</v>
       </c>
       <c r="F15" s="2">
         <v>44813</v>
@@ -1021,19 +1080,23 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>1412.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>1412.8000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1041,15 +1104,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>1362.075</v>
+        <v>1362.0750000000003</v>
       </c>
       <c r="F16" s="2">
         <v>44813</v>
@@ -1058,19 +1122,23 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>1412.075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>1412.0750000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1078,15 +1146,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>1351.35</v>
+        <v>1351.3500000000001</v>
       </c>
       <c r="F17" s="2">
         <v>44813</v>
@@ -1095,19 +1164,23 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>1411.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>1411.3500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1115,15 +1188,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>1340.625</v>
+        <v>1340.6250000000002</v>
       </c>
       <c r="F18" s="2">
         <v>44813</v>
@@ -1132,19 +1206,23 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="3"/>
-        <v>1410.625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1410.6250000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1152,15 +1230,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>1329.8999999999999</v>
+        <v>1329.9</v>
       </c>
       <c r="F19" s="2">
         <v>44813</v>
@@ -1169,19 +1248,23 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="3"/>
-        <v>1409.8999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>1409.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1189,15 +1272,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>1319.175</v>
+        <v>1319.1750000000002</v>
       </c>
       <c r="F20" s="2">
         <v>44813</v>
@@ -1206,19 +1290,23 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="3"/>
-        <v>1409.175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>1409.1750000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1226,15 +1314,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>1308.45</v>
+        <v>1308.4500000000003</v>
       </c>
       <c r="F21" s="2">
         <v>44813</v>
@@ -1243,19 +1332,23 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="3"/>
-        <v>1408.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>1408.4500000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1263,15 +1356,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>1297.7249999999999</v>
+        <v>1297.7250000000001</v>
       </c>
       <c r="F22" s="2">
         <v>44813</v>
@@ -1280,19 +1374,23 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="3"/>
-        <v>1407.7249999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>1407.7250000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f>A22+1</f>
         <v>21</v>
@@ -1301,15 +1399,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>1287.0000000000002</v>
       </c>
       <c r="F23" s="2">
         <v>44813</v>
@@ -1318,36 +1417,41 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="3"/>
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>1407.0000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" ref="A24:A37" si="7">A23+1</f>
+        <f t="shared" ref="A24:A37" si="9">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>1276.2749999999999</v>
+        <v>1276.2750000000001</v>
       </c>
       <c r="F24" s="2">
         <v>44813</v>
@@ -1356,36 +1460,41 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="3"/>
-        <v>1406.2749999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>1406.2750000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>1265.55</v>
+        <v>1265.5500000000002</v>
       </c>
       <c r="F25" s="2">
         <v>44813</v>
@@ -1394,36 +1503,41 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="3"/>
-        <v>1405.55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>1405.5500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>1254.825</v>
+        <v>1254.8250000000003</v>
       </c>
       <c r="F26" s="2">
         <v>44813</v>
@@ -1432,36 +1546,41 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="3"/>
-        <v>1404.825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>1404.8250000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>1244.0999999999999</v>
+        <v>1244.1000000000001</v>
       </c>
       <c r="F27" s="2">
         <v>44813</v>
@@ -1470,36 +1589,41 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="3"/>
-        <v>1404.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>1404.1000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>1233.375</v>
+        <v>1233.3750000000002</v>
       </c>
       <c r="F28" s="2">
         <v>44813</v>
@@ -1508,36 +1632,41 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
         <f t="shared" si="3"/>
-        <v>1403.375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1403.3750000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>1222.6499999999999</v>
+        <v>1222.6500000000001</v>
       </c>
       <c r="F29" s="2">
         <v>44813</v>
@@ -1546,36 +1675,41 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="3"/>
-        <v>1402.6499999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>1402.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>1211.925</v>
+        <v>1211.9250000000002</v>
       </c>
       <c r="F30" s="2">
         <v>44813</v>
@@ -1584,36 +1718,41 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="3"/>
-        <v>1401.925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>1401.9250000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>1201.2</v>
+        <v>1201.2000000000003</v>
       </c>
       <c r="F31" s="2">
         <v>44813</v>
@@ -1622,36 +1761,41 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="3"/>
-        <v>1401.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1401.2000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>1190.4749999999999</v>
+        <v>1190.4750000000001</v>
       </c>
       <c r="F32" s="2">
         <v>44813</v>
@@ -1660,36 +1804,41 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="3"/>
-        <v>1400.4749999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>1400.4750000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>1179.75</v>
+        <v>1179.7500000000002</v>
       </c>
       <c r="F33" s="2">
         <v>44813</v>
@@ -1698,36 +1847,41 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="3"/>
-        <v>1399.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>1399.7500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>1169.0249999999999</v>
+        <v>1169.0250000000001</v>
       </c>
       <c r="F34" s="2">
         <v>44813</v>
@@ -1736,19 +1890,23 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="3"/>
-        <v>1399.0249999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>1399.0250000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f>A34+1</f>
         <v>33</v>
@@ -1757,15 +1915,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>1158.3</v>
+        <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="2">
         <v>44813</v>
@@ -1774,32 +1933,37 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="3"/>
-        <v>1398.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>1398.3000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
@@ -1812,36 +1976,41 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
         <v>1397.575</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>1136.8499999999999</v>
+        <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="2">
         <v>44813</v>
@@ -1850,19 +2019,23 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="3"/>
-        <v>1396.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>1396.8500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f>A37+1</f>
         <v>36</v>
@@ -1871,15 +2044,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <v>21.45</v>
+        <f t="shared" si="7"/>
+        <v>21.450000000000003</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>1126.125</v>
+        <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="2">
         <v>44813</v>
@@ -1888,19 +2062,23 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="3"/>
-        <v>1396.125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>1396.1250000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1910,16 +2088,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUNDUP(SUM(J3:J38), 1)</f>
-        <v>62789</v>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>62788</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1927,12 +2104,11 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -1944,12 +2120,11 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -1961,15 +2136,14 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(J3:J38)</f>
+        <f>MAX(K3:K38)</f>
         <v>3003.0000000000005</v>
       </c>
       <c r="D43" s="1"/>
@@ -1978,7 +2152,6 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,11 +604,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="0">$A$1*1.1</f>
+        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2981.55</v>
       </c>
       <c r="F4" s="2">
@@ -618,7 +618,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H12" si="2">IF(G4&lt;F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H12" si="1">IF(G4&lt;F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -626,11 +626,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2981.55</v>
       </c>
     </row>
@@ -642,15 +642,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D38" si="5">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2960.1000000000004</v>
       </c>
       <c r="F5" s="2">
@@ -660,7 +660,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -668,11 +668,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2960.1000000000004</v>
       </c>
     </row>
@@ -684,15 +684,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2938.6500000000005</v>
       </c>
       <c r="F6" s="2">
@@ -702,7 +702,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -710,11 +710,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2938.6500000000005</v>
       </c>
     </row>
@@ -726,15 +726,15 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="F7" s="2">
@@ -744,7 +744,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -752,11 +752,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2917.2000000000003</v>
       </c>
     </row>
@@ -768,15 +768,15 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2895.7500000000005</v>
       </c>
       <c r="F8" s="2">
@@ -786,7 +786,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -794,11 +794,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2895.7500000000005</v>
       </c>
     </row>
@@ -810,15 +810,15 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2874.3</v>
       </c>
       <c r="F9" s="2">
@@ -828,7 +828,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -836,11 +836,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2874.3</v>
       </c>
     </row>
@@ -852,15 +852,15 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2852.8500000000004</v>
       </c>
       <c r="F10" s="2">
@@ -870,7 +870,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -878,11 +878,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2852.8500000000004</v>
       </c>
     </row>
@@ -894,25 +894,25 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>$A$1*1.1/2</f>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>2831.4000000000005</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>1415.7000000000003</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -920,12 +920,12 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
-        <v>1415.7000000000003</v>
+        <f t="shared" si="3"/>
+        <v>2831.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -936,16 +936,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D38" si="7">$A$1*1.1/2</f>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>1404.9750000000001</v>
+        <f t="shared" si="0"/>
+        <v>2809.9500000000003</v>
       </c>
       <c r="F12" s="2">
         <v>44813</v>
@@ -954,7 +954,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -962,12 +962,12 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
-        <v>1414.9750000000001</v>
+        <f t="shared" si="3"/>
+        <v>2819.9500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>1394.2500000000002</v>
+        <f t="shared" si="0"/>
+        <v>2788.5000000000005</v>
       </c>
       <c r="F13" s="2">
         <v>44813</v>
@@ -996,7 +996,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="8">IF(G13&lt;F13, 0, G13-F13)</f>
+        <f t="shared" ref="H13:H38" si="7">IF(G13&lt;F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1004,12 +1004,12 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
-        <v>1414.2500000000002</v>
+        <f t="shared" si="3"/>
+        <v>2808.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1020,16 +1020,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>1383.5250000000001</v>
+        <f t="shared" si="0"/>
+        <v>2767.05</v>
       </c>
       <c r="F14" s="2">
         <v>44813</v>
@@ -1038,7 +1038,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1046,12 +1046,12 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>1413.5250000000001</v>
+        <f t="shared" si="3"/>
+        <v>2797.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1062,16 +1062,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>1372.8000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2745.6000000000004</v>
       </c>
       <c r="F15" s="2">
         <v>44813</v>
@@ -1080,7 +1080,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1088,12 +1088,12 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>1412.8000000000002</v>
+        <f t="shared" si="3"/>
+        <v>2785.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1104,16 +1104,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>1362.0750000000003</v>
+        <f t="shared" si="0"/>
+        <v>2724.1500000000005</v>
       </c>
       <c r="F16" s="2">
         <v>44813</v>
@@ -1122,7 +1122,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1130,12 +1130,12 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
-        <v>1412.0750000000003</v>
+        <f t="shared" si="3"/>
+        <v>2774.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1146,16 +1146,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>1351.3500000000001</v>
+        <f t="shared" si="0"/>
+        <v>2702.7000000000003</v>
       </c>
       <c r="F17" s="2">
         <v>44813</v>
@@ -1164,7 +1164,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1172,12 +1172,12 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
-        <v>1411.3500000000001</v>
+        <f t="shared" si="3"/>
+        <v>2762.7000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1188,16 +1188,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>1340.6250000000002</v>
+        <f t="shared" si="0"/>
+        <v>2681.2500000000005</v>
       </c>
       <c r="F18" s="2">
         <v>44813</v>
@@ -1206,7 +1206,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1214,12 +1214,12 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
-        <v>1410.6250000000002</v>
+        <f t="shared" si="3"/>
+        <v>2751.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1230,16 +1230,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>1329.9</v>
+        <f t="shared" si="0"/>
+        <v>2659.8</v>
       </c>
       <c r="F19" s="2">
         <v>44813</v>
@@ -1248,7 +1248,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1256,12 +1256,12 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
-        <v>1409.9</v>
+        <f t="shared" si="3"/>
+        <v>2739.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1272,16 +1272,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>1319.1750000000002</v>
+        <f t="shared" si="0"/>
+        <v>2638.3500000000004</v>
       </c>
       <c r="F20" s="2">
         <v>44813</v>
@@ -1290,7 +1290,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1298,12 +1298,12 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
-        <v>1409.1750000000002</v>
+        <f t="shared" si="3"/>
+        <v>2728.3500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1314,16 +1314,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>1308.4500000000003</v>
+        <f t="shared" si="0"/>
+        <v>2616.9000000000005</v>
       </c>
       <c r="F21" s="2">
         <v>44813</v>
@@ -1332,7 +1332,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1340,12 +1340,12 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
-        <v>1408.4500000000003</v>
+        <f t="shared" si="3"/>
+        <v>2716.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1356,16 +1356,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>1297.7250000000001</v>
+        <f t="shared" si="0"/>
+        <v>2595.4500000000003</v>
       </c>
       <c r="F22" s="2">
         <v>44813</v>
@@ -1374,7 +1374,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1382,12 +1382,12 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
-        <v>1407.7250000000001</v>
+        <f t="shared" si="3"/>
+        <v>2705.4500000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1399,16 +1399,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>1287.0000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2574.0000000000005</v>
       </c>
       <c r="F23" s="2">
         <v>44813</v>
@@ -1417,7 +1417,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1425,33 +1425,33 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
-        <v>1407.0000000000002</v>
+        <f t="shared" si="3"/>
+        <v>2694.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" ref="A24:A37" si="9">A23+1</f>
+        <f t="shared" ref="A24:A37" si="8">A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>1276.2750000000001</v>
+        <f t="shared" si="0"/>
+        <v>2552.5500000000002</v>
       </c>
       <c r="F24" s="2">
         <v>44813</v>
@@ -1460,7 +1460,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1468,33 +1468,33 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
-        <v>1406.2750000000001</v>
+        <f t="shared" si="3"/>
+        <v>2682.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>1265.5500000000002</v>
+        <f t="shared" si="0"/>
+        <v>2531.1000000000004</v>
       </c>
       <c r="F25" s="2">
         <v>44813</v>
@@ -1503,7 +1503,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1511,33 +1511,33 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
-        <v>1405.5500000000002</v>
+        <f t="shared" si="3"/>
+        <v>2671.1000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>1254.8250000000003</v>
+        <f t="shared" si="0"/>
+        <v>2509.6500000000005</v>
       </c>
       <c r="F26" s="2">
         <v>44813</v>
@@ -1546,7 +1546,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1554,33 +1554,33 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
-        <v>1404.8250000000003</v>
+        <f t="shared" si="3"/>
+        <v>2659.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>1244.1000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2488.2000000000003</v>
       </c>
       <c r="F27" s="2">
         <v>44813</v>
@@ -1589,7 +1589,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1597,33 +1597,33 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
-        <v>1404.1000000000001</v>
+        <f t="shared" si="3"/>
+        <v>2648.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>1233.3750000000002</v>
+        <f t="shared" si="0"/>
+        <v>2466.7500000000005</v>
       </c>
       <c r="F28" s="2">
         <v>44813</v>
@@ -1632,7 +1632,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1640,33 +1640,33 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
-        <v>1403.3750000000002</v>
+        <f t="shared" si="3"/>
+        <v>2636.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>1222.6500000000001</v>
+        <f t="shared" si="0"/>
+        <v>2445.3000000000002</v>
       </c>
       <c r="F29" s="2">
         <v>44813</v>
@@ -1675,7 +1675,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1683,33 +1683,33 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
-        <v>1402.65</v>
+        <f t="shared" si="3"/>
+        <v>2625.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>1211.9250000000002</v>
+        <f t="shared" si="0"/>
+        <v>2423.8500000000004</v>
       </c>
       <c r="F30" s="2">
         <v>44813</v>
@@ -1718,7 +1718,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1726,33 +1726,33 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
-        <v>1401.9250000000002</v>
+        <f t="shared" si="3"/>
+        <v>2613.8500000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>1201.2000000000003</v>
+        <f t="shared" si="0"/>
+        <v>2402.4000000000005</v>
       </c>
       <c r="F31" s="2">
         <v>44813</v>
@@ -1761,7 +1761,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1769,33 +1769,33 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
-        <v>1401.2000000000003</v>
+        <f t="shared" si="3"/>
+        <v>2602.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>1190.4750000000001</v>
+        <f t="shared" si="0"/>
+        <v>2380.9500000000003</v>
       </c>
       <c r="F32" s="2">
         <v>44813</v>
@@ -1804,7 +1804,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1812,33 +1812,33 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
-        <v>1400.4750000000001</v>
+        <f t="shared" si="3"/>
+        <v>2590.9500000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>1179.7500000000002</v>
+        <f t="shared" si="0"/>
+        <v>2359.5000000000005</v>
       </c>
       <c r="F33" s="2">
         <v>44813</v>
@@ -1847,7 +1847,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1855,33 +1855,33 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
-        <v>1399.7500000000002</v>
+        <f t="shared" si="3"/>
+        <v>2579.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="7"/>
-        <v>21.450000000000003</v>
+        <f t="shared" si="5"/>
+        <v>42.900000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>1169.0250000000001</v>
+        <f t="shared" si="0"/>
+        <v>2338.0500000000002</v>
       </c>
       <c r="F34" s="2">
         <v>44813</v>
@@ -1890,7 +1890,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -1898,12 +1898,12 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
-        <v>1399.0250000000001</v>
+        <f t="shared" si="3"/>
+        <v>2568.0500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1915,15 +1915,15 @@
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="2">
@@ -1933,7 +1933,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -1941,32 +1941,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1398.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1147.575</v>
       </c>
       <c r="F36" s="2">
@@ -1976,7 +1976,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -1984,32 +1984,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1397.575</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="2">
@@ -2019,7 +2019,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2027,11 +2027,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1396.8500000000001</v>
       </c>
     </row>
@@ -2044,15 +2044,15 @@
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="2">
@@ -2062,7 +2062,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2070,11 +2070,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1396.1250000000002</v>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
-        <v>62788</v>
+        <v>93805</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -24,9 +24,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>Максимальная оплата, руб</t>
   </si>
   <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>Штраф, руб</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -214,10 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,7 +504,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,38 +520,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -556,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -597,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -639,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -681,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -723,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -765,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -807,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -849,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -891,7 +894,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -933,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -975,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1017,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1059,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1101,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1143,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1185,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1227,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1269,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1311,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1353,7 +1356,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1396,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="4"/>
@@ -1439,7 +1442,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1482,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1525,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1568,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1611,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1654,7 +1657,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1697,7 +1700,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1740,7 +1743,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1783,7 +1786,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1826,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -1869,7 +1872,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -1912,7 +1915,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -1955,7 +1958,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -1998,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2041,7 +2044,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2092,7 +2095,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
@@ -2108,7 +2111,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2124,7 +2127,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2140,7 +2143,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -214,13 +214,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +560,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -596,7 +601,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -638,18 +644,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="5">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" ref="D5:D38" si="6">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="1">
@@ -667,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="6">$I$3</f>
+        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -680,18 +687,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E6" s="1">
@@ -709,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -722,18 +730,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E7" s="1">
@@ -751,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -764,18 +773,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E8" s="1">
@@ -793,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -806,18 +816,19 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E9" s="1">
@@ -835,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -848,18 +859,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E10" s="1">
@@ -877,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -890,18 +902,19 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E11" s="1">
@@ -919,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -932,18 +945,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E12" s="1">
@@ -961,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -974,18 +988,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E13" s="1">
@@ -999,11 +1014,11 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="7">IF(G13&lt;F13, 0, G13-F13)</f>
+        <f t="shared" ref="H13:H38" si="8">IF(G13&lt;F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1016,18 +1031,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E14" s="1">
@@ -1041,11 +1057,11 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1058,18 +1074,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E15" s="1">
@@ -1083,11 +1100,11 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1100,18 +1117,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E16" s="1">
@@ -1125,11 +1143,11 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1142,18 +1160,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E17" s="1">
@@ -1167,11 +1186,11 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1184,18 +1203,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E18" s="1">
@@ -1209,11 +1229,11 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1226,18 +1246,19 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E19" s="1">
@@ -1251,11 +1272,11 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1268,18 +1289,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E20" s="1">
@@ -1293,11 +1315,11 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1310,18 +1332,19 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E21" s="1">
@@ -1335,11 +1358,11 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1352,18 +1375,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E22" s="1">
@@ -1377,11 +1401,11 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1394,19 +1418,19 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <f>A22+1</f>
+      <c r="A23" s="4">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E23" s="1">
@@ -1420,11 +1444,11 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1437,19 +1461,19 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <f t="shared" ref="A24:A37" si="8">A23+1</f>
+      <c r="A24" s="4">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E24" s="1">
@@ -1463,11 +1487,11 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1480,19 +1504,19 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <f t="shared" si="8"/>
+      <c r="A25" s="4">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E25" s="1">
@@ -1506,11 +1530,11 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1523,19 +1547,19 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <f t="shared" si="8"/>
+      <c r="A26" s="4">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E26" s="1">
@@ -1549,11 +1573,11 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1566,19 +1590,19 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <f t="shared" si="8"/>
+      <c r="A27" s="4">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E27" s="1">
@@ -1592,11 +1616,11 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1609,19 +1633,19 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <f t="shared" si="8"/>
+      <c r="A28" s="4">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E28" s="1">
@@ -1635,11 +1659,11 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1652,19 +1676,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <f t="shared" si="8"/>
+      <c r="A29" s="4">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E29" s="1">
@@ -1678,11 +1702,11 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1695,19 +1719,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <f t="shared" si="8"/>
+      <c r="A30" s="4">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E30" s="1">
@@ -1721,11 +1745,11 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1738,19 +1762,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <f t="shared" si="8"/>
+      <c r="A31" s="4">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E31" s="1">
@@ -1764,11 +1788,11 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1781,19 +1805,19 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <f t="shared" si="8"/>
+      <c r="A32" s="4">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E32" s="1">
@@ -1807,11 +1831,11 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1824,19 +1848,19 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <f t="shared" si="8"/>
+      <c r="A33" s="4">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E33" s="1">
@@ -1850,11 +1874,11 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1867,19 +1891,19 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="8"/>
+      <c r="A34" s="4">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E34" s="1">
@@ -1893,11 +1917,11 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1910,19 +1934,19 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <f>A34+1</f>
+      <c r="A35" s="4">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="1">
@@ -1936,11 +1960,11 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1953,19 +1977,19 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <f t="shared" si="8"/>
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="1">
@@ -1979,11 +2003,11 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -1996,19 +2020,19 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <f t="shared" si="8"/>
+      <c r="A37" s="4">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="1">
@@ -2022,11 +2046,11 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2039,19 +2063,19 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <f>A37+1</f>
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="1">
@@ -2065,11 +2089,11 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2094,7 +2118,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="1">
@@ -2110,7 +2134,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1">
@@ -2126,7 +2150,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1">
@@ -2142,7 +2166,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="1">
@@ -2156,6 +2180,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +624,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -667,6 +668,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="7">$I$3</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -710,6 +712,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -753,6 +756,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -760,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -796,6 +800,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -803,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -839,6 +844,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -846,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -882,6 +888,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -889,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -925,6 +932,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -932,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -968,6 +976,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -975,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1011,14 +1020,15 @@
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="8">IF(G13&lt;F13, 0, G13-F13)</f>
+        <f t="shared" ref="H13:H38" si="9">IF(G13&lt;F13, 0, G13-F13)</f>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1054,14 +1064,15 @@
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1097,14 +1108,15 @@
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1140,14 +1152,15 @@
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1183,14 +1196,15 @@
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1226,14 +1240,15 @@
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1269,14 +1284,15 @@
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1312,14 +1328,15 @@
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1355,14 +1372,15 @@
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1398,14 +1416,15 @@
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1441,14 +1460,15 @@
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1484,14 +1504,15 @@
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1527,14 +1548,15 @@
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1570,14 +1592,15 @@
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1613,14 +1636,15 @@
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1656,14 +1680,15 @@
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1699,14 +1724,15 @@
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1742,14 +1768,15 @@
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1785,14 +1812,15 @@
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1828,14 +1856,15 @@
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1871,14 +1900,15 @@
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1914,14 +1944,15 @@
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1957,14 +1988,15 @@
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2000,14 +2032,15 @@
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2043,14 +2076,15 @@
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2086,14 +2120,15 @@
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="E3" s="1">
-        <f>C3*D3</f>
+        <f>D3*C3</f>
         <v>3003.0000000000005</v>
       </c>
       <c r="F3" s="2">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>E3+J3</f>
+        <f>SUM(E3,J3)</f>
         <v>3003.0000000000005</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>2981.55</v>
       </c>
       <c r="F4" s="2">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
         <v>2981.55</v>
       </c>
     </row>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -132,18 +132,12 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
     <t>Тариф, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -153,18 +147,9 @@
     <t>Максимальная просрочка, дней</t>
   </si>
   <si>
-    <t>Максимальная оплата, руб</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -172,6 +157,21 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная оплата, руб.</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
@@ -2170,7 +2170,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2186,7 +2186,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2202,7 +2202,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -135,27 +135,12 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Ср. площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальная просрочка, дней</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -171,7 +156,22 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная оплата, руб.</t>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Срок оплаты, день</t>
+  </si>
+  <si>
+    <t>Дата оплаты, день</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K38),0)</f>
@@ -2170,7 +2170,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2186,7 +2186,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2202,7 +2202,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -159,12 +159,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Срок оплаты, день</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>Максимальная срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +541,10 @@
         <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>39</v>
@@ -617,7 +617,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+        <f>D4*C4</f>
         <v>2981.55</v>
       </c>
       <c r="F4" s="2">
@@ -628,7 +628,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H12" si="1">IF(G4&lt;F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H12" si="0">IF(G4&lt;F4, 0, G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -636,32 +636,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="1">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="3">SUM(E4,J4)</f>
+        <f t="shared" ref="K4:K38" si="2">SUM(E4,J4)</f>
         <v>2981.55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" ref="D5:D38" si="5">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E38" si="6">D5*C5</f>
         <v>2960.1000000000004</v>
       </c>
       <c r="F5" s="2">
@@ -672,7 +672,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -680,43 +680,43 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2960.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="6"/>
+        <v>2938.6500000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="7"/>
+        <v>44808</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>2938.6500000000005</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="7"/>
-        <v>44808</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -724,43 +724,43 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2938.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="6"/>
+        <v>2917.2000000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="7"/>
+        <v>44809</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>2917.2000000000003</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="7"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -768,43 +768,43 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2917.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="6"/>
+        <v>2895.7500000000005</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="7"/>
+        <v>44810</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>2895.7500000000005</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="7"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -812,43 +812,43 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2895.7500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="6"/>
+        <v>2874.3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="7"/>
+        <v>44811</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>2874.3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="7"/>
-        <v>44811</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -856,43 +856,43 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2874.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="6"/>
+        <v>2852.8500000000004</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="7"/>
+        <v>44812</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>2852.8500000000004</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="7"/>
-        <v>44812</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -900,43 +900,43 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2852.8500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="6"/>
+        <v>2831.4000000000005</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>2831.4000000000005</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -944,43 +944,43 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2831.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="6"/>
+        <v>2809.9500000000003</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="7"/>
+        <v>44814</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>2809.9500000000003</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="7"/>
-        <v>44814</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -988,32 +988,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2819.9500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2788.5000000000005</v>
       </c>
       <c r="F13" s="2">
@@ -1032,32 +1032,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2808.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2767.05</v>
       </c>
       <c r="F14" s="2">
@@ -1076,32 +1076,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2797.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2745.6000000000004</v>
       </c>
       <c r="F15" s="2">
@@ -1120,32 +1120,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2785.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2724.1500000000005</v>
       </c>
       <c r="F16" s="2">
@@ -1164,32 +1164,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2774.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2702.7000000000003</v>
       </c>
       <c r="F17" s="2">
@@ -1208,32 +1208,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2762.7000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2681.2500000000005</v>
       </c>
       <c r="F18" s="2">
@@ -1252,32 +1252,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2751.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2659.8</v>
       </c>
       <c r="F19" s="2">
@@ -1296,32 +1296,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2739.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2638.3500000000004</v>
       </c>
       <c r="F20" s="2">
@@ -1340,32 +1340,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2728.3500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2616.9000000000005</v>
       </c>
       <c r="F21" s="2">
@@ -1384,32 +1384,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2716.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2595.4500000000003</v>
       </c>
       <c r="F22" s="2">
@@ -1428,32 +1428,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2705.4500000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2574.0000000000005</v>
       </c>
       <c r="F23" s="2">
@@ -1472,32 +1472,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2694.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2552.5500000000002</v>
       </c>
       <c r="F24" s="2">
@@ -1516,32 +1516,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2682.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2531.1000000000004</v>
       </c>
       <c r="F25" s="2">
@@ -1560,32 +1560,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2671.1000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2509.6500000000005</v>
       </c>
       <c r="F26" s="2">
@@ -1604,32 +1604,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2659.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2488.2000000000003</v>
       </c>
       <c r="F27" s="2">
@@ -1648,32 +1648,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2648.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2466.7500000000005</v>
       </c>
       <c r="F28" s="2">
@@ -1692,32 +1692,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2636.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2445.3000000000002</v>
       </c>
       <c r="F29" s="2">
@@ -1736,32 +1736,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2625.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2423.8500000000004</v>
       </c>
       <c r="F30" s="2">
@@ -1780,32 +1780,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2613.8500000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2402.4000000000005</v>
       </c>
       <c r="F31" s="2">
@@ -1824,32 +1824,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2602.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2380.9500000000003</v>
       </c>
       <c r="F32" s="2">
@@ -1868,32 +1868,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2590.9500000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2359.5000000000005</v>
       </c>
       <c r="F33" s="2">
@@ -1912,32 +1912,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2579.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2338.0500000000002</v>
       </c>
       <c r="F34" s="2">
@@ -1956,32 +1956,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2568.0500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="2">
@@ -2000,32 +2000,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1398.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1147.575</v>
       </c>
       <c r="F36" s="2">
@@ -2044,32 +2044,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1397.575</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="2">
@@ -2088,32 +2088,32 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1396.8500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="2">
@@ -2132,11 +2132,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1396.1250000000002</v>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2186,7 +2186,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2202,7 +2202,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -661,7 +661,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E4:E38" si="6">D5*C5</f>
+        <f t="shared" ref="E5:E38" si="6">D5*C5</f>
         <v>2960.1000000000004</v>
       </c>
       <c r="F5" s="2">

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CF04E-F60A-4A94-9ECE-7013F487542C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425E10C8-6FC8-41B8-B0DE-6603ED3489F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="1800" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +197,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -228,6 +221,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282C34"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,27 +266,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -596,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,35 +620,38 @@
     <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:69" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
@@ -690,1801 +699,2213 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:69" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>70</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <f>$A$1*1.1</f>
         <v>42.900000000000006</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>3003.0000000000005</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14">
         <v>44813</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <v>44805</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="12">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="12">
         <v>10</v>
       </c>
-      <c r="J3" s="4">
-        <f>I3*H3</f>
+      <c r="J3" s="12">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
-        <f>J3+E3</f>
+      <c r="K3" s="12">
+        <f>E3+J3</f>
         <v>3003.0000000000005</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D34" si="1">$A$1*1.1</f>
         <v>42.900000000000006</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>2981.55</v>
       </c>
-      <c r="F4" s="11">
-        <f>$F$3</f>
+      <c r="F4" s="14">
+        <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="12">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <f>$I$3</f>
+      <c r="I4" s="12">
+        <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>2981.55</v>
       </c>
+      <c r="M4" s="11"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
     </row>
     <row r="5" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>2960.1000000000004</v>
       </c>
-      <c r="F5" s="11">
-        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" ref="I5:I38" si="9">$I$3</f>
+      <c r="I5" s="12">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="12">
         <f t="shared" si="4"/>
         <v>2960.1000000000004</v>
       </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="8"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>2938.6500000000005</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="14">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="12">
         <f t="shared" si="4"/>
         <v>2938.6500000000005</v>
       </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="8"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>2917.2000000000003</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="12">
         <f t="shared" si="4"/>
         <v>2917.2000000000003</v>
       </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="8"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
     </row>
     <row r="8" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>2895.7500000000005</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="12">
         <f t="shared" si="4"/>
         <v>2895.7500000000005</v>
       </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="8"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>2874.3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="12">
         <f t="shared" si="4"/>
         <v>2874.3</v>
       </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="8"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>2852.8500000000004</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="12">
         <f t="shared" si="4"/>
         <v>2852.8500000000004</v>
       </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="8"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>2831.4000000000005</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="12">
         <f t="shared" si="4"/>
         <v>2831.4000000000005</v>
       </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="8"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
     </row>
     <row r="12" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>2809.9500000000003</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="14">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="12">
         <f t="shared" si="4"/>
         <v>2819.9500000000003</v>
       </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="8"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>2788.5000000000005</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="14">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="12">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="12">
         <f t="shared" si="4"/>
         <v>2808.5000000000005</v>
       </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="8"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>2767.05</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="14">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="12">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="12">
         <f t="shared" si="4"/>
         <v>2797.05</v>
       </c>
+      <c r="M14" s="11"/>
       <c r="N14" s="8"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>2745.6000000000004</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="14">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="12">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="12">
         <f t="shared" si="4"/>
         <v>2785.6000000000004</v>
       </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="8"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
     </row>
     <row r="16" spans="1:69" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>2724.1500000000005</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="14">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="12">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="12">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="12">
         <f t="shared" si="4"/>
         <v>2774.1500000000005</v>
       </c>
+      <c r="M16" s="11"/>
       <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="12">
         <f t="shared" si="0"/>
         <v>2702.7000000000003</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="14">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="12">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="12">
         <f t="shared" si="4"/>
         <v>2762.7000000000003</v>
       </c>
+      <c r="M17" s="11"/>
       <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
         <v>2681.2500000000005</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="14">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="12">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="12">
         <f t="shared" si="4"/>
         <v>2751.2500000000005</v>
       </c>
+      <c r="M18" s="11"/>
       <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>2659.8</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="14">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="12">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="12">
         <f t="shared" si="4"/>
         <v>2739.8</v>
       </c>
+      <c r="M19" s="11"/>
       <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>2638.3500000000004</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="14">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="12">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="12">
         <f t="shared" si="4"/>
         <v>2728.3500000000004</v>
       </c>
+      <c r="M20" s="11"/>
       <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>2616.9000000000005</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="14">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="12">
         <f t="shared" si="4"/>
         <v>2716.9000000000005</v>
       </c>
+      <c r="M21" s="11"/>
       <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>2595.4500000000003</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="14">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="12">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="12">
         <f t="shared" si="4"/>
         <v>2705.4500000000003</v>
       </c>
+      <c r="M22" s="11"/>
       <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>2574.0000000000005</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="12">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="12">
         <f t="shared" si="4"/>
         <v>2694.0000000000005</v>
       </c>
+      <c r="M23" s="11"/>
       <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>2552.5500000000002</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="14">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="12">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="12">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="12">
         <f t="shared" si="4"/>
         <v>2682.55</v>
       </c>
+      <c r="M24" s="11"/>
       <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>2531.1000000000004</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="14">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="12">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="12">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="12">
         <f t="shared" si="4"/>
         <v>2671.1000000000004</v>
       </c>
+      <c r="M25" s="11"/>
       <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="12">
         <f t="shared" si="0"/>
         <v>2509.6500000000005</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="14">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="12">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="12">
         <f t="shared" si="4"/>
         <v>2659.6500000000005</v>
       </c>
+      <c r="M26" s="11"/>
       <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="12">
         <f t="shared" si="0"/>
         <v>2488.2000000000003</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="14">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="12">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="12">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="12">
         <f t="shared" si="4"/>
         <v>2648.2000000000003</v>
       </c>
+      <c r="M27" s="11"/>
       <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="12">
         <f t="shared" si="0"/>
         <v>2466.7500000000005</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="14">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="12">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="12">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="12">
         <f t="shared" si="4"/>
         <v>2636.7500000000005</v>
       </c>
+      <c r="M28" s="11"/>
       <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>2445.3000000000002</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="14">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="12">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="12">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="12">
         <f t="shared" si="4"/>
         <v>2625.3</v>
       </c>
+      <c r="M29" s="11"/>
       <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="12">
         <f t="shared" si="0"/>
         <v>2423.8500000000004</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="14">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="12">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="12">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="12">
         <f t="shared" si="4"/>
         <v>2613.8500000000004</v>
       </c>
+      <c r="M30" s="11"/>
       <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="12">
         <f t="shared" si="0"/>
         <v>2402.4000000000005</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="14">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="12">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="12">
         <f t="shared" si="4"/>
         <v>2602.4000000000005</v>
       </c>
+      <c r="M31" s="11"/>
       <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="12">
         <f t="shared" si="0"/>
         <v>2380.9500000000003</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="14">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="12">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="12">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="12">
         <f t="shared" si="4"/>
         <v>2590.9500000000003</v>
       </c>
+      <c r="M32" s="11"/>
       <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="12">
         <f t="shared" si="0"/>
         <v>2359.5000000000005</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="14">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="12">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="12">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="12">
         <f t="shared" si="4"/>
         <v>2579.5000000000005</v>
       </c>
+      <c r="M33" s="11"/>
       <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="12">
         <f t="shared" si="1"/>
         <v>42.900000000000006</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="12">
         <f t="shared" si="0"/>
         <v>2338.0500000000002</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="14">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="12">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="12">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="12">
         <f t="shared" si="4"/>
         <v>2568.0500000000002</v>
       </c>
+      <c r="M34" s="11"/>
       <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="4">
-        <f>$A$1*1.1*1/2</f>
+      <c r="D35" s="12">
+        <f>$A$1*1.1/2</f>
         <v>21.450000000000003</v>
       </c>
-      <c r="E35" s="4">
-        <f>C35*D35</f>
+      <c r="E35" s="12">
+        <f t="shared" si="0"/>
         <v>1158.3000000000002</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="14">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="12">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="12">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="12">
         <f t="shared" si="4"/>
         <v>1398.3000000000002</v>
       </c>
+      <c r="M35" s="11"/>
       <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+    </row>
+    <row r="36" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="10">$A$1*1.1*1/2</f>
+      <c r="D36" s="12">
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>21.450000000000003</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="12">
         <f t="shared" si="0"/>
         <v>1147.575</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="14">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="12">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="12">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="12">
         <f t="shared" si="4"/>
         <v>1397.575</v>
       </c>
+      <c r="M36" s="11"/>
       <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="12">
         <f t="shared" si="10"/>
         <v>21.450000000000003</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="12">
         <f t="shared" si="0"/>
         <v>1136.8500000000001</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="14">
         <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="12">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="12">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="12">
         <f t="shared" si="4"/>
         <v>1396.8500000000001</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="12">
         <f t="shared" si="10"/>
         <v>21.450000000000003</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="12">
         <f t="shared" si="0"/>
         <v>1126.1250000000002</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="14">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="14">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="12">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="12">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="12">
         <f t="shared" si="4"/>
         <v>1396.1250000000002</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+    </row>
+    <row r="39" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="12" t="s">
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="4">
-        <f>INT(SUM(K3:K38))</f>
+      <c r="C40" s="12">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>93805</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="12" t="s">
+      <c r="M40" s="11"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+    </row>
+    <row r="41" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="12">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
       <c r="B42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="12">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="12" t="s">
+      <c r="M42" s="11"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="12">
         <f>MAX(K3:K38)</f>
         <v>3003.0000000000005</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M43" s="11"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+    </row>
+    <row r="44" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2496,11 +2917,11 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="9"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2512,11 +2933,11 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2528,11 +2949,11 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2544,11 +2965,11 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2560,11 +2981,11 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="8"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2576,11 +2997,11 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="8"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2592,11 +3013,11 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="8"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2608,11 +3029,11 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="8"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2624,11 +3045,11 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="8"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2640,7 +3061,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="8"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -4001,10 +4422,10 @@
       <c r="M150" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="G3:G36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:G36">
     <sortCondition ref="G3:G36"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -165,13 +165,13 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Максимальная срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +541,10 @@
         <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>39</v>
@@ -2186,7 +2186,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
         <v>42.900000000000006</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*C3</f>
+        <f>C3*D3</f>
         <v>3003.0000000000005</v>
       </c>
       <c r="F3" s="2">
@@ -584,7 +584,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3, 0, G3-F3)</f>
+        <f>IF(G3&gt;F3, G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -592,11 +592,11 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3">
-        <f>SUM(E3,J3)</f>
+      <c r="K3" s="1">
+        <f>E3+J3</f>
         <v>3003.0000000000005</v>
       </c>
     </row>
@@ -613,14 +613,15 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>IF((A4 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f>D3</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E4" s="1">
-        <f>D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2981.55</v>
       </c>
       <c r="F4" s="2">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
@@ -628,7 +629,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H12" si="0">IF(G4&lt;F4, 0, G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4, G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -636,1507 +637,1541 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="1">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K38" si="2">SUM(E4,J4)</f>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2981.55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="5">IF((A5 / 4 &lt;= 8),$D$3, $D$3/2)</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>42.900000000000006</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E38" si="6">D5*C5</f>
+        <f t="shared" si="0"/>
         <v>2960.1000000000004</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
         <v>2960.1000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2938.6500000000005</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
         <v>2938.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2917.2000000000003</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
         <v>2917.2000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2895.7500000000005</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
         <v>2895.7500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2874.3</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
         <v>2874.3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2852.8500000000004</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
         <v>2852.8500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2831.4000000000005</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
         <v>2831.4000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2809.9500000000003</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
         <v>2819.9500000000003</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2788.5000000000005</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H38" si="9">IF(G13&lt;F13, 0, G13-F13)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
         <v>2808.5000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2767.05</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
         <v>2797.05</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2745.6000000000004</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
         <v>2785.6000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2724.1500000000005</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
         <v>2774.1500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2702.7000000000003</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
         <v>2762.7000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2681.2500000000005</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
         <v>2751.2500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2659.8</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
         <v>2739.8</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2638.3500000000004</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
         <v>2728.3500000000004</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2616.9000000000005</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
         <v>2716.9000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2595.4500000000003</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
         <v>2705.4500000000003</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2574.0000000000005</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
         <v>2694.0000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2552.5500000000002</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
+      <c r="K24" s="1">
+        <f t="shared" si="3"/>
         <v>2682.55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2531.1000000000004</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
+      <c r="K25" s="1">
+        <f t="shared" si="3"/>
         <v>2671.1000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2509.6500000000005</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
         <v>2659.6500000000005</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2488.2000000000003</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
+      <c r="K27" s="1">
+        <f t="shared" si="3"/>
         <v>2648.2000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2466.7500000000005</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
+      <c r="K28" s="1">
+        <f t="shared" si="3"/>
         <v>2636.7500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2445.3000000000002</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
         <v>2625.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2423.8500000000004</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
+      <c r="K30" s="1">
+        <f t="shared" si="3"/>
         <v>2613.8500000000004</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2402.4000000000005</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
         <v>2602.4000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2380.9500000000003</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
+      <c r="K32" s="1">
+        <f t="shared" si="3"/>
         <v>2590.9500000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2359.5000000000005</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
         <v>2579.5000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.900000000000006</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2338.0500000000002</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
+      <c r="K34" s="1">
+        <f t="shared" si="3"/>
         <v>2568.0500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
+        <f>D3/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1158.3000000000002</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
+      <c r="K35" s="1">
+        <f t="shared" si="3"/>
         <v>1398.3000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f>D3/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1147.575</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
         <v>1397.575</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f>D3/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1136.8500000000001</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
+      <c r="K37" s="1">
+        <f t="shared" si="3"/>
         <v>1396.8500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f>D3/2</f>
         <v>21.450000000000003</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1126.1250000000002</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
+      <c r="K38" s="1">
+        <f t="shared" si="3"/>
         <v>1396.1250000000002</v>
       </c>
     </row>

--- a/LR3/table_1_39.xlsx
+++ b/LR3/table_1_39.xlsx
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,11 +584,10 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;F3, G3-F3,0)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <f>10</f>
         <v>10</v>
       </c>
       <c r="J3" s="1">
@@ -629,7 +628,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4, G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -2192,7 +2191,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>93805</v>
       </c>
       <c r="D40" s="1"/>
